--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914154.3911806094</v>
+        <v>-917142.7881098036</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8636583.597527931</v>
+        <v>8585397.263433056</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14183282.87972297</v>
+        <v>14185206.41844021</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.3579429966985</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>77.97945039079958</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>199.0010697041356</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>110.686079378997</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>89.80559584836469</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>291.344618723588</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>132.5359395228097</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>64.99586874835499</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.7827993952602</v>
+        <v>30.46222848190278</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.39230501855776</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>304.3319395401181</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5302785738832</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3812715448344</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.39697089430917</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.66570489598182</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
-        <v>156.577620990673</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8868064860852</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8878795422033</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>29.47502458765887</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9471326156048</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>101.0317023810217</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.31414135199866</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143195</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>28.87956703897861</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>56.00855464855893</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>17.08568015709637</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>101.0225650656803</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>92.49190324064764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>122.8616248925021</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.67036458428391</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>64.44601915223043</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.7088146683232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G29" t="n">
         <v>409.8432760127576</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.37259901119289</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.27666756506272</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839572</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035436</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624963</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772833</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.70965412973844</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641297</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3357,10 +3357,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839572</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624963</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772833</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973844</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.08582897641297</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772833</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581.134716985073</v>
+        <v>1786.085377036609</v>
       </c>
       <c r="C2" t="n">
-        <v>1212.172200044661</v>
+        <v>1417.122860096198</v>
       </c>
       <c r="D2" t="n">
-        <v>1212.172200044661</v>
+        <v>1417.122860096198</v>
       </c>
       <c r="E2" t="n">
-        <v>826.3839474464169</v>
+        <v>1031.334607497953</v>
       </c>
       <c r="F2" t="n">
-        <v>826.3839474464169</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>408.4201393446037</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X2" t="n">
-        <v>1971.274048960885</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y2" t="n">
-        <v>1581.134716985073</v>
+        <v>1928.871178043375</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4410,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.4036268380756</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C4" t="n">
-        <v>211.4036268380756</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>211.4036268380756</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>211.4036268380756</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380756</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380756</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380756</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.513150920515</v>
+        <v>1562.968440970219</v>
       </c>
       <c r="C5" t="n">
-        <v>1117.513150920515</v>
+        <v>1562.968440970219</v>
       </c>
       <c r="D5" t="n">
-        <v>759.2474523137644</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>759.2474523137644</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>1949.568281034341</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>662.4765915313284</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>662.4765915313284</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V7" t="n">
-        <v>662.4765915313284</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W7" t="n">
-        <v>373.0594214943678</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="X7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.151210892345</v>
+        <v>1358.140854479382</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.188693951934</v>
+        <v>989.1783375389707</v>
       </c>
       <c r="D8" t="n">
-        <v>882.9229953451832</v>
+        <v>630.9126389322203</v>
       </c>
       <c r="E8" t="n">
-        <v>882.9229953451832</v>
+        <v>245.124386333976</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9370905555755</v>
+        <v>238.1788855847726</v>
       </c>
       <c r="G8" t="n">
-        <v>53.97466692399959</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.97466692399959</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.97466692399959</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.8576899846485</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>464.2811062254477</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.8160163137436</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1363.010599624217</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1837.359416820289</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2240.085916119059</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2546.129282956164</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2698.73334619998</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2643.791623959012</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2643.791623959012</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2643.791623959012</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2643.791623959012</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2643.791623959012</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="W8" t="n">
-        <v>2291.022968688898</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="X8" t="n">
-        <v>1917.557210427818</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.151210892345</v>
+        <v>1744.740694543504</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4962612823491</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0432320012221</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1088223399709</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8713673345154</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3368093614004</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4274370645487</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9918092414836</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.97466692399959</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.3004218977353</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.6649779723906</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.4385338451553</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.76940325376</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.684763967872</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.993424620656</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2644.376875414338</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.084591439862</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.917212757052</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.75799963516</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.882437528003</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.712862232848</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.560754001105</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.323397272904</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.471897067371</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.711598302417</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.284901889257</v>
+        <v>252.6519168570177</v>
       </c>
       <c r="C10" t="n">
-        <v>190.284901889257</v>
+        <v>83.7157339291108</v>
       </c>
       <c r="D10" t="n">
-        <v>190.284901889257</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>190.284901889257</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>190.284901889257</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>190.284901889257</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>190.284901889257</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.97466692399959</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.97466692399959</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.3475760609651</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>238.0119258459251</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>383.0052059260078</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.9854863035549</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.7292691654714</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.6700795526782</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.6700795526782</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.6700795526782</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.6700795526782</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>626.6178549253835</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>626.6178549253835</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>371.9333667194967</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W10" t="n">
-        <v>371.9333667194967</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="X10" t="n">
-        <v>371.9333667194967</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.9333667194967</v>
+        <v>252.6519168570177</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5054,31 +5054,31 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,31 +5109,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.0900014994927</v>
+        <v>1120.662598458017</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1538185715858</v>
+        <v>951.7264155301102</v>
       </c>
       <c r="D13" t="n">
-        <v>410.1538185715858</v>
+        <v>801.6097761177745</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353813</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>506.806735037471</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121899</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442099</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927061</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892255</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952193</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104707</v>
+        <v>1927.172186267352</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230351</v>
+        <v>1638.069319392995</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024464</v>
+        <v>1638.069319392995</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987503</v>
+        <v>1348.652149356034</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894861</v>
+        <v>1120.662598458017</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.356810945956</v>
+        <v>1120.662598458017</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996753</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,40 +5355,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.0900014994927</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1538185715858</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>152.1353320732014</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>152.1353320732014</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1525.63270371611</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1270.948215510223</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>981.5310454732626</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5310454732626</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7384663297324</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,52 +5513,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1070.832524924162</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>491.7343098287685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>673.3827746590082</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5762,16 +5762,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>432.2000540015823</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1062.630648873369</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>834.6410979753522</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>613.848518831822</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5999,7 +5999,7 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6063,13 +6063,13 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>464.90245661901</v>
+        <v>747.3928343215996</v>
       </c>
       <c r="C25" t="n">
-        <v>340.7998052124422</v>
+        <v>578.4566513936927</v>
       </c>
       <c r="D25" t="n">
-        <v>340.7998052124422</v>
+        <v>428.340011981357</v>
       </c>
       <c r="E25" t="n">
-        <v>192.886711630049</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>192.886711630049</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W25" t="n">
-        <v>874.540472347267</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X25" t="n">
-        <v>646.5509214492497</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y25" t="n">
-        <v>646.5509214492497</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6279,61 +6279,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E27" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F27" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668117</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310563</v>
+        <v>373.2380436180413</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.75575956269</v>
+        <v>965.2563978701667</v>
       </c>
       <c r="N27" t="n">
-        <v>1903.667562284444</v>
+        <v>1587.352361269501</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6345,7 +6345,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.6361984155943</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C28" t="n">
-        <v>640.7000154876874</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D28" t="n">
-        <v>490.5833760753517</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E28" t="n">
-        <v>490.5833760753517</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F28" t="n">
-        <v>343.6934285774414</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S28" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T28" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U28" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V28" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W28" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X28" t="n">
-        <v>1148.566294223938</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.2846632458341</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
         <v>842.9746074384018</v>
@@ -6470,43 +6470,43 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K30" t="n">
-        <v>302.0892292003572</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L30" t="n">
-        <v>792.8215620441084</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296236</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695572</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>2053.984252811039</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2473.567771237115</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.791123359144</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>847.854940431237</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>697.7383010189012</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E31" t="n">
-        <v>549.8252074365081</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385978</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
@@ -6646,25 +6646,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1852.798158323305</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1598.113670117418</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1308.696500080457</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1080.70694918244</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.791123359144</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>921.9831621891608</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>778.3953859427393</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>653.6271532118872</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>531.0624663109795</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>409.5209254945546</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>267.6551373506189</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083873</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504289</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900156</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896368</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371967</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016492</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.72739279996</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337915</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427376</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109796</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>409.5209254945546</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506189</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>144.0153224630501</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>474.5240650264088</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>482.1471447887724</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>144.0153224630501</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>474.5240650264088</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452619</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718135</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319314</v>
+        <v>921.983162189159</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656807</v>
+        <v>778.3953859427374</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150012</v>
+        <v>653.6271532118869</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942643</v>
+        <v>531.0624663109793</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580104</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345466</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438401</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954147</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083871</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1360811687904</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>904.461687384549</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.840175011101</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.41269872306101</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,16 +8939,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>169.5026663584972</v>
+        <v>67.53663776704411</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>189.7998007892635</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782909267</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>241.3758986667821</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>98.03418779963906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>124.9217030602215</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.51783882993864</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>190.6693822371906</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.0172536104693</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>269.1261580485165</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520935</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>66.22425603294752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,7 +23938,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,7 +24175,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>159.6457400831804</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>44.3851962061257</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>127.7635980622853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>84.16945386598192</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.87583868377163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0.4319777332161436</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.3079857870321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1284702.297037941</v>
+        <v>1284710.112008236</v>
       </c>
     </row>
     <row r="5">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1235222.3185865</v>
+        <v>1235834.991601579</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1235222.3185865</v>
+        <v>1235834.991601579</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1235222.3185865</v>
+        <v>1235834.991601579</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1235222.3185865</v>
+        <v>1235834.991601579</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1235222.3185865</v>
+        <v>1235834.991601579</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185712.7345750947</v>
+        <v>185712.7345750948</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>198540.8934434915</v>
+        <v>198540.8934434916</v>
       </c>
       <c r="F2" t="n">
-        <v>198540.8934434915</v>
+        <v>198540.8934434916</v>
       </c>
       <c r="G2" t="n">
         <v>198540.8934434915</v>
@@ -26335,25 +26335,25 @@
         <v>198540.8934434915</v>
       </c>
       <c r="J2" t="n">
+        <v>201670.7442796397</v>
+      </c>
+      <c r="K2" t="n">
         <v>201670.7442796398</v>
       </c>
-      <c r="K2" t="n">
-        <v>201670.7442796399</v>
-      </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660706</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660707</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>415.0177423585053</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>726985.2433466802</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>369281.3433869618</v>
+        <v>369281.3433869589</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.979545570269693e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>26531.36749719731</v>
+        <v>20075.93809173647</v>
       </c>
       <c r="M3" t="n">
-        <v>129543.6141568662</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147577.8441244558</v>
+        <v>147577.8441244559</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192111.3319131511</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.91576066296</v>
+        <v>5069.91576066317</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662917</v>
+        <v>5069.915760662909</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591958991</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591958991</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975158</v>
+        <v>13327.39591958994</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975163</v>
+        <v>13327.3959195899</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.3959195899</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82890.59130179133</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26488,28 +26488,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-634692.066827315</v>
+        <v>-634887.5439062249</v>
       </c>
       <c r="C6" t="n">
-        <v>-69805.23198976836</v>
+        <v>-69805.23198976845</v>
       </c>
       <c r="D6" t="n">
-        <v>-70156.49849123014</v>
+        <v>-69805.23198976833</v>
       </c>
       <c r="E6" t="n">
-        <v>-646447.4761539941</v>
+        <v>-646906.8422909462</v>
       </c>
       <c r="F6" t="n">
-        <v>80537.76719268596</v>
+        <v>80470.57170246045</v>
       </c>
       <c r="G6" t="n">
-        <v>80537.76719268599</v>
+        <v>80470.57170246</v>
       </c>
       <c r="H6" t="n">
-        <v>80537.76719268596</v>
+        <v>80470.57170246018</v>
       </c>
       <c r="I6" t="n">
-        <v>80537.76719268603</v>
+        <v>80470.57170246021</v>
       </c>
       <c r="J6" t="n">
-        <v>-273610.5543252236</v>
+        <v>-273646.4513070851</v>
       </c>
       <c r="K6" t="n">
-        <v>95670.78906173838</v>
+        <v>95634.89207987102</v>
       </c>
       <c r="L6" t="n">
-        <v>63116.45121520688</v>
+        <v>68817.36394821329</v>
       </c>
       <c r="M6" t="n">
-        <v>-39895.79544446239</v>
+        <v>-40749.01279899523</v>
       </c>
       <c r="N6" t="n">
-        <v>89647.8187124039</v>
+        <v>88893.30203994943</v>
       </c>
       <c r="O6" t="n">
-        <v>89647.81871240391</v>
+        <v>88893.30203994954</v>
       </c>
       <c r="P6" t="n">
-        <v>89647.81871240388</v>
+        <v>88893.30203994954</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>378.0846073188823</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,25 +26759,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="K3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.6833365499949</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26817,19 +26817,19 @@
         <v>1173.104351895088</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.340943101795574</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>711.692093274416</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>268.2643481230873</v>
+        <v>268.2643481230832</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="L3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3960637954394315</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.8295940549353</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.8786940447134</v>
+        <v>652.8786940447135</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549356</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3960637954394315</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549353</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>256.6488538210439</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>328.8965953509119</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>34.73496864393422</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>128.7790575037301</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>63.33842289709492</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>274.3401062189017</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>160.0392367097293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>98.70524268180415</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>383.3219415388922</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9087358455983</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.8784752039287</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.384479679596</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.442320444379</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2240578582465</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>81.90599911593551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>119.1404484305535</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3091874436214</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1654225737041</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.15649173767365</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.07126754654316</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6375476427565</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1348243938526</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>124.0007761384094</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818407065907</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3.534950110406498e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467059</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467058</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.519938119874902</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.56606627016885</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.59741436647723</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
-        <v>129.0028480017326</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.3418286160373</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.8576348521589</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8878343914841</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>271.2063585745788</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>256.0924738950727</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.569001560661</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>164.136217642641</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.47681292259192</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.63558990664937</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.653529119752389</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1215950495899922</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8132385893274071</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.854172691662065</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.99966195710591</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.83321251184947</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.3201979967857</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5762121256724</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>206.0561109887908</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.5098031075698</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.4901480493151</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.2929022023538</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.8091925604599</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.49212925666131</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.10555011316477</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.277922208736346</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05350253877153997</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6817919148373286</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.061749933735526</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.50334231165349</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.20268837899913</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.21182428746415</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
-        <v>101.3638634113607</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.8739817049096</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.3327572950615</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.36818810809808</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.45963304541651</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.09077570515122</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.65584373441297</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.88177364311962</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.913110908850403</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03718864990021797</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32549,10 +32549,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>420.766193382333</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N27" t="n">
-        <v>382.7677754386397</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>348.1857632660258</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
         <v>634.2436048745724</v>
@@ -33272,16 +33272,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>221.0369088927402</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>297.1808238847177</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>615.6579511813131</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>177.5113380923668</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>177.5113380923668</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963288</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>456.3459017226606</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>467.4901056247184</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.0535586471201</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.3973901422215</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.7524344326221</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>486.0551346570439</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>479.140219389972</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.7944437361313</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>309.1347139768741</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>154.1455184280962</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.08662118559161</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.9439960350053</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.8621776492573</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.6271408167725</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.5104653677901</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.7562228816003</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.7812634279607</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.2401171974994</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.9423324615813</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.9538886716768</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.4578586667502</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.46492967429</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.9533160221378</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.73819231031</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443231</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>677.5556672467163</v>
+        <v>575.5896386552631</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36130,10 +36130,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36142,7 +36142,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36367,10 +36367,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>742.101636202175</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L26" t="n">
-        <v>677.09020389553</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311674</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>282.2118136024588</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N27" t="n">
-        <v>251.4260633553063</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>779.6000841311491</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
         <v>744.7323009263698</v>
@@ -36850,7 +36850,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695038</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845841</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>210.3443242916669</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
         <v>495.6892250946982</v>
@@ -36920,16 +36920,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.0551348067187</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>210.3443242916669</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462702</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>159.3393849103587</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>484.3162390979798</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>50.67371142570007</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>50.67371142570007</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164546</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>318.5044627483016</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>325.3560717027</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
